--- a/DataGeneration.xlsx
+++ b/DataGeneration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d111c22d0d44bfb7/Fidelitas/SC-601 - Programación Avanzada/Final Project/SugarMonkey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{CE96290F-7750-4A03-BE1B-EE8AC37E00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{784ED11A-2BEE-4233-A982-A45307B92FCC}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{CE96290F-7750-4A03-BE1B-EE8AC37E00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{581C820D-F31B-435B-AE0F-12924A201D78}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6B39063-5E09-4EE8-92D1-ACA90D09C3B7}"/>
   </bookViews>
@@ -2968,7 +2968,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="str">
         <f>CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C3,CHAR(34), ",",CHAR(34),D3,CHAR(34), ",",CHAR(34),E3,CHAR(34), ",",,F3,, ",",CHAR(34),G3,CHAR(34), ",",CHAR(34),H3,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Beyonce","Collins","Harvey",12345678,"Beyonce.Collins.Har.@milliner.pro","Monkey@123";</v>
+        <v>EXECUTE STP_CreateUser "Beyonce","Collins","Harvey",12345678,"Beyonce.Collins.Har.@gmail.com","Monkey@123";</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2986,8 +2986,8 @@
         <v>12345678</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(".",TRUE,C3,D3,LEFT(E3,3),"@milliner.pro")</f>
-        <v>Beyonce.Collins.Har.@milliner.pro</v>
+        <f>_xlfn.TEXTJOIN(".",TRUE,C3,D3,LEFT(E3,3),"@gmail.com")</f>
+        <v>Beyonce.Collins.Har.@gmail.com</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>735</v>
@@ -2996,7 +2996,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A67" si="0">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C4,CHAR(34), ",",CHAR(34),D4,CHAR(34), ",",CHAR(34),E4,CHAR(34), ",",,F4,, ",",CHAR(34),G4,CHAR(34), ",",CHAR(34),H4,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Cassietta","Cooper","Andrews",12345678,"Cassietta.Cooper.And.@milliner.pro","Monkey@124";</v>
+        <v>EXECUTE STP_CreateUser "Cassietta","Cooper","Andrews",12345678,"Cassietta.Cooper.And.@gmail.com","Monkey@124";</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3014,8 +3014,8 @@
         <v>12345678</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f t="shared" ref="G4:G67" si="1">_xlfn.TEXTJOIN(".",TRUE,C4,D4,LEFT(E4,3),"@milliner.pro")</f>
-        <v>Cassietta.Cooper.And.@milliner.pro</v>
+        <f t="shared" ref="G4:G67" si="1">_xlfn.TEXTJOIN(".",TRUE,C4,D4,LEFT(E4,3),"@gmail.com")</f>
+        <v>Cassietta.Cooper.And.@gmail.com</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>736</v>
@@ -3024,7 +3024,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Cleotha","Watson","Cunningham",12345678,"Cleotha.Watson.Cun.@milliner.pro","Monkey@125";</v>
+        <v>EXECUTE STP_CreateUser "Cleotha","Watson","Cunningham",12345678,"Cleotha.Watson.Cun.@gmail.com","Monkey@125";</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Cleotha.Watson.Cun.@milliner.pro</v>
+        <v>Cleotha.Watson.Cun.@gmail.com</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>737</v>
@@ -3052,7 +3052,7 @@
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deion","Williams","Hicks",12345678,"Deion.Williams.Hic.@milliner.pro","Monkey@126";</v>
+        <v>EXECUTE STP_CreateUser "Deion","Williams","Hicks",12345678,"Deion.Williams.Hic.@gmail.com","Monkey@126";</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Deion.Williams.Hic.@milliner.pro</v>
+        <v>Deion.Williams.Hic.@gmail.com</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>738</v>
@@ -3080,7 +3080,7 @@
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deiondre","Johnson","Bennett",12345678,"Deiondre.Johnson.Ben.@milliner.pro","Monkey@127";</v>
+        <v>EXECUTE STP_CreateUser "Deiondre","Johnson","Bennett",12345678,"Deiondre.Johnson.Ben.@gmail.com","Monkey@127";</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Deiondre.Johnson.Ben.@milliner.pro</v>
+        <v>Deiondre.Johnson.Ben.@gmail.com</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>739</v>
@@ -3108,7 +3108,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deiondre","Butler","Stephens",12345678,"Deiondre.Butler.Ste.@milliner.pro","Monkey@128";</v>
+        <v>EXECUTE STP_CreateUser "Deiondre","Butler","Stephens",12345678,"Deiondre.Butler.Ste.@gmail.com","Monkey@128";</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Deiondre.Butler.Ste.@milliner.pro</v>
+        <v>Deiondre.Butler.Ste.@gmail.com</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>740</v>
@@ -3136,7 +3136,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dele","Smith","Joseph",12345678,"Dele.Smith.Jos.@milliner.pro","Monkey@129";</v>
+        <v>EXECUTE STP_CreateUser "Dele","Smith","Joseph",12345678,"Dele.Smith.Jos.@gmail.com","Monkey@129";</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Dele.Smith.Jos.@milliner.pro</v>
+        <v>Dele.Smith.Jos.@gmail.com</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>741</v>
@@ -3164,7 +3164,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Denzel","Jones","Gibson",12345678,"Denzel.Jones.Gib.@milliner.pro","Monkey@130";</v>
+        <v>EXECUTE STP_CreateUser "Denzel","Jones","Gibson",12345678,"Denzel.Jones.Gib.@gmail.com","Monkey@130";</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Denzel.Jones.Gib.@milliner.pro</v>
+        <v>Denzel.Jones.Gib.@gmail.com</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>742</v>
@@ -3192,7 +3192,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dericia","Alexander","Armstrong",12345678,"Dericia.Alexander.Arm.@milliner.pro","Monkey@131";</v>
+        <v>EXECUTE STP_CreateUser "Dericia","Alexander","Armstrong",12345678,"Dericia.Alexander.Arm.@gmail.com","Monkey@131";</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Dericia.Alexander.Arm.@milliner.pro</v>
+        <v>Dericia.Alexander.Arm.@gmail.com</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>743</v>
@@ -3220,7 +3220,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dewayne","Brown","Crawford",12345678,"Dewayne.Brown.Cra.@milliner.pro","Monkey@132";</v>
+        <v>EXECUTE STP_CreateUser "Dewayne","Brown","Crawford",12345678,"Dewayne.Brown.Cra.@gmail.com","Monkey@132";</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Dewayne.Brown.Cra.@milliner.pro</v>
+        <v>Dewayne.Brown.Cra.@gmail.com</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>744</v>
@@ -3248,7 +3248,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dikembe","Jackson","Jefferson",12345678,"Dikembe.Jackson.Jef.@milliner.pro","Monkey@133";</v>
+        <v>EXECUTE STP_CreateUser "Dikembe","Jackson","Jefferson",12345678,"Dikembe.Jackson.Jef.@gmail.com","Monkey@133";</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Dikembe.Jackson.Jef.@milliner.pro</v>
+        <v>Dikembe.Jackson.Jef.@gmail.com</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>745</v>
@@ -3276,7 +3276,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Duante","Davis","Watkins",12345678,"Duante.Davis.Wat.@milliner.pro","Monkey@134";</v>
+        <v>EXECUTE STP_CreateUser "Duante","Davis","Watkins",12345678,"Duante.Davis.Wat.@gmail.com","Monkey@134";</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Duante.Davis.Wat.@milliner.pro</v>
+        <v>Duante.Davis.Wat.@gmail.com</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>746</v>
@@ -3304,7 +3304,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Gaynelle","Bryant","Peterson",12345678,"Gaynelle.Bryant.Pet.@milliner.pro","Monkey@135";</v>
+        <v>EXECUTE STP_CreateUser "Gaynelle","Bryant","Peterson",12345678,"Gaynelle.Bryant.Pet.@gmail.com","Monkey@135";</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Gaynelle.Bryant.Pet.@milliner.pro</v>
+        <v>Gaynelle.Bryant.Pet.@gmail.com</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>747</v>
@@ -3332,7 +3332,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Jamar","Thomas","Tucker",12345678,"Jamar.Thomas.Tuc.@milliner.pro","Monkey@136";</v>
+        <v>EXECUTE STP_CreateUser "Jamar","Thomas","Tucker",12345678,"Jamar.Thomas.Tuc.@gmail.com","Monkey@136";</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Jamar.Thomas.Tuc.@milliner.pro</v>
+        <v>Jamar.Thomas.Tuc.@gmail.com</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>748</v>
@@ -3360,7 +3360,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Jevonte","Harris","Porter",12345678,"Jevonte.Harris.Por.@milliner.pro","Monkey@137";</v>
+        <v>EXECUTE STP_CreateUser "Jevonte","Harris","Porter",12345678,"Jevonte.Harris.Por.@gmail.com","Monkey@137";</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Jevonte.Harris.Por.@milliner.pro</v>
+        <v>Jevonte.Harris.Por.@gmail.com</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>749</v>
@@ -3388,7 +3388,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kacondra","Nelson","Glover",12345678,"Kacondra.Nelson.Glo.@milliner.pro","Monkey@138";</v>
+        <v>EXECUTE STP_CreateUser "Kacondra","Nelson","Glover",12345678,"Kacondra.Nelson.Glo.@gmail.com","Monkey@138";</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kacondra.Nelson.Glo.@milliner.pro</v>
+        <v>Kacondra.Nelson.Glo.@gmail.com</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>750</v>
@@ -3416,7 +3416,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kadeem","Robinson","Willis",12345678,"Kadeem.Robinson.Wil.@milliner.pro","Monkey@139";</v>
+        <v>EXECUTE STP_CreateUser "Kadeem","Robinson","Willis",12345678,"Kadeem.Robinson.Wil.@gmail.com","Monkey@139";</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kadeem.Robinson.Wil.@milliner.pro</v>
+        <v>Kadeem.Robinson.Wil.@gmail.com</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>751</v>
@@ -3444,7 +3444,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kanesha","Morris","Long",12345678,"Kanesha.Morris.Lon.@milliner.pro","Monkey@140";</v>
+        <v>EXECUTE STP_CreateUser "Kanesha","Morris","Long",12345678,"Kanesha.Morris.Lon.@gmail.com","Monkey@140";</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kanesha.Morris.Lon.@milliner.pro</v>
+        <v>Kanesha.Morris.Lon.@gmail.com</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>752</v>
@@ -3472,7 +3472,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keilantra","Barnes","Haynes",12345678,"Keilantra.Barnes.Hay.@milliner.pro","Monkey@141";</v>
+        <v>EXECUTE STP_CreateUser "Keilantra","Barnes","Haynes",12345678,"Keilantra.Barnes.Hay.@gmail.com","Monkey@141";</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Keilantra.Barnes.Hay.@milliner.pro</v>
+        <v>Keilantra.Barnes.Hay.@gmail.com</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>753</v>
@@ -3500,7 +3500,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kendis","Taylor","Mason",12345678,"Kendis.Taylor.Mas.@milliner.pro","Monkey@142";</v>
+        <v>EXECUTE STP_CreateUser "Kendis","Taylor","Mason",12345678,"Kendis.Taylor.Mas.@gmail.com","Monkey@142";</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kendis.Taylor.Mas.@milliner.pro</v>
+        <v>Kendis.Taylor.Mas.@gmail.com</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>754</v>
@@ -3528,7 +3528,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kendis","Jordan","Riley",12345678,"Kendis.Jordan.Ril.@milliner.pro","Monkey@143";</v>
+        <v>EXECUTE STP_CreateUser "Kendis","Jordan","Riley",12345678,"Kendis.Jordan.Ril.@gmail.com","Monkey@143";</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kendis.Jordan.Ril.@milliner.pro</v>
+        <v>Kendis.Jordan.Ril.@gmail.com</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>755</v>
@@ -3556,7 +3556,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kentay","Wilson","Matthews",12345678,"Kentay.Wilson.Mat.@milliner.pro","Monkey@144";</v>
+        <v>EXECUTE STP_CreateUser "Kentay","Wilson","Matthews",12345678,"Kentay.Wilson.Mat.@gmail.com","Monkey@144";</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kentay.Wilson.Mat.@milliner.pro</v>
+        <v>Kentay.Wilson.Mat.@gmail.com</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>756</v>
@@ -3584,7 +3584,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keshawn","Moore","Fields",12345678,"Keshawn.Moore.Fie.@milliner.pro","Monkey@145";</v>
+        <v>EXECUTE STP_CreateUser "Keshawn","Moore","Fields",12345678,"Keshawn.Moore.Fie.@gmail.com","Monkey@145";</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Keshawn.Moore.Fie.@milliner.pro</v>
+        <v>Keshawn.Moore.Fie.@gmail.com</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>757</v>
@@ -3612,7 +3612,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keshon","Reed","Hampton",12345678,"Keshon.Reed.Ham.@milliner.pro","Monkey@146";</v>
+        <v>EXECUTE STP_CreateUser "Keshon","Reed","Hampton",12345678,"Keshon.Reed.Ham.@gmail.com","Monkey@146";</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Keshon.Reed.Ham.@milliner.pro</v>
+        <v>Keshon.Reed.Ham.@gmail.com</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>758</v>
@@ -3640,7 +3640,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Khalon","White","Cook",12345678,"Khalon.White.Coo.@milliner.pro","Monkey@147";</v>
+        <v>EXECUTE STP_CreateUser "Khalon","White","Cook",12345678,"Khalon.White.Coo.@gmail.com","Monkey@147";</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Khalon.White.Coo.@milliner.pro</v>
+        <v>Khalon.White.Coo.@gmail.com</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>759</v>
@@ -3668,7 +3668,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kofi","Lewis","Hughes",12345678,"Kofi.Lewis.Hug.@milliner.pro","Monkey@148";</v>
+        <v>EXECUTE STP_CreateUser "Kofi","Lewis","Hughes",12345678,"Kofi.Lewis.Hug.@gmail.com","Monkey@148";</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kofi.Lewis.Hug.@milliner.pro</v>
+        <v>Kofi.Lewis.Hug.@gmail.com</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>760</v>
@@ -3696,7 +3696,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kwamin","Walker","Simpson",12345678,"Kwamin.Walker.Sim.@milliner.pro","Monkey@149";</v>
+        <v>EXECUTE STP_CreateUser "Kwamin","Walker","Simpson",12345678,"Kwamin.Walker.Sim.@gmail.com","Monkey@149";</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kwamin.Walker.Sim.@milliner.pro</v>
+        <v>Kwamin.Walker.Sim.@gmail.com</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>761</v>
@@ -3724,7 +3724,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kyan","Green","Hudson",12345678,"Kyan.Green.Hud.@milliner.pro","Monkey@150";</v>
+        <v>EXECUTE STP_CreateUser "Kyan","Green","Hudson",12345678,"Kyan.Green.Hud.@gmail.com","Monkey@150";</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kyan.Green.Hud.@milliner.pro</v>
+        <v>Kyan.Green.Hud.@gmail.com</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>762</v>
@@ -3752,7 +3752,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kyrone","Washington","Cole",12345678,"Kyrone.Washington.Col.@milliner.pro","Monkey@151";</v>
+        <v>EXECUTE STP_CreateUser "Kyrone","Washington","Cole",12345678,"Kyrone.Washington.Col.@gmail.com","Monkey@151";</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Kyrone.Washington.Col.@milliner.pro</v>
+        <v>Kyrone.Washington.Col.@gmail.com</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>763</v>
@@ -3780,7 +3780,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lachelle","Woods","Wade",12345678,"Lachelle.Woods.Wad.@milliner.pro","Monkey@152";</v>
+        <v>EXECUTE STP_CreateUser "Lachelle","Woods","Wade",12345678,"Lachelle.Woods.Wad.@gmail.com","Monkey@152";</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="G32" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lachelle.Woods.Wad.@milliner.pro</v>
+        <v>Lachelle.Woods.Wad.@gmail.com</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>764</v>
@@ -3808,7 +3808,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laken","Scott","West",12345678,"Laken.Scott.Wes.@milliner.pro","Monkey@153";</v>
+        <v>EXECUTE STP_CreateUser "Laken","Scott","West",12345678,"Laken.Scott.Wes.@gmail.com","Monkey@153";</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G33" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Laken.Scott.Wes.@milliner.pro</v>
+        <v>Laken.Scott.Wes.@gmail.com</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>765</v>
@@ -3836,7 +3836,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lakin","Dixon","Miles",12345678,"Lakin.Dixon.Mil.@milliner.pro","Monkey@154";</v>
+        <v>EXECUTE STP_CreateUser "Lakin","Dixon","Miles",12345678,"Lakin.Dixon.Mil.@gmail.com","Monkey@154";</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G34" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lakin.Dixon.Mil.@milliner.pro</v>
+        <v>Lakin.Dixon.Mil.@gmail.com</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>766</v>
@@ -3864,7 +3864,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lakista","Carter","Reid",12345678,"Lakista.Carter.Rei.@milliner.pro","Monkey@155";</v>
+        <v>EXECUTE STP_CreateUser "Lakista","Carter","Reid",12345678,"Lakista.Carter.Rei.@gmail.com","Monkey@155";</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="G35" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lakista.Carter.Rei.@milliner.pro</v>
+        <v>Lakista.Carter.Rei.@gmail.com</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>767</v>
@@ -3892,7 +3892,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lamech","Wright","Murphy",12345678,"Lamech.Wright.Mur.@milliner.pro","Monkey@156";</v>
+        <v>EXECUTE STP_CreateUser "Lamech","Wright","Murphy",12345678,"Lamech.Wright.Mur.@gmail.com","Monkey@156";</v>
       </c>
       <c r="B36" s="1">
         <v>34</v>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lamech.Wright.Mur.@milliner.pro</v>
+        <v>Lamech.Wright.Mur.@gmail.com</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>768</v>
@@ -3920,7 +3920,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lanelle","Roberts","Palmer",12345678,"Lanelle.Roberts.Pal.@milliner.pro","Monkey@157";</v>
+        <v>EXECUTE STP_CreateUser "Lanelle","Roberts","Palmer",12345678,"Lanelle.Roberts.Pal.@gmail.com","Monkey@157";</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="G37" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lanelle.Roberts.Pal.@milliner.pro</v>
+        <v>Lanelle.Roberts.Pal.@gmail.com</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>769</v>
@@ -3948,7 +3948,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laquanna","Gray","Neal",12345678,"Laquanna.Gray.Nea.@milliner.pro","Monkey@158";</v>
+        <v>EXECUTE STP_CreateUser "Laquanna","Gray","Neal",12345678,"Laquanna.Gray.Nea.@gmail.com","Monkey@158";</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="G38" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Laquanna.Gray.Nea.@milliner.pro</v>
+        <v>Laquanna.Gray.Nea.@gmail.com</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>770</v>
@@ -3976,7 +3976,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laqueta","Phillips","Gardner",12345678,"Laqueta.Phillips.Gar.@milliner.pro","Monkey@159";</v>
+        <v>EXECUTE STP_CreateUser "Laqueta","Phillips","Gardner",12345678,"Laqueta.Phillips.Gar.@gmail.com","Monkey@159";</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="G39" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Laqueta.Phillips.Gar.@milliner.pro</v>
+        <v>Laqueta.Phillips.Gar.@gmail.com</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>771</v>
@@ -4004,7 +4004,7 @@
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laquinta","Griffin","Ferguson",12345678,"Laquinta.Griffin.Fer.@milliner.pro","Monkey@160";</v>
+        <v>EXECUTE STP_CreateUser "Laquinta","Griffin","Ferguson",12345678,"Laquinta.Griffin.Fer.@gmail.com","Monkey@160";</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G40" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Laquinta.Griffin.Fer.@milliner.pro</v>
+        <v>Laquinta.Griffin.Fer.@gmail.com</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>772</v>
@@ -4032,7 +4032,7 @@
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lashawn","Baker","Garrett",12345678,"Lashawn.Baker.Gar.@milliner.pro","Monkey@161";</v>
+        <v>EXECUTE STP_CreateUser "Lashawn","Baker","Garrett",12345678,"Lashawn.Baker.Gar.@gmail.com","Monkey@161";</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="G41" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lashawn.Baker.Gar.@milliner.pro</v>
+        <v>Lashawn.Baker.Gar.@gmail.com</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>773</v>
@@ -4060,7 +4060,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latanya","Powell","Tate",12345678,"Latanya.Powell.Tat.@milliner.pro","Monkey@162";</v>
+        <v>EXECUTE STP_CreateUser "Latanya","Powell","Tate",12345678,"Latanya.Powell.Tat.@gmail.com","Monkey@162";</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="G42" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Latanya.Powell.Tat.@milliner.pro</v>
+        <v>Latanya.Powell.Tat.@gmail.com</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>774</v>
@@ -4088,7 +4088,7 @@
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latonya","Bailey","Singleton",12345678,"Latonya.Bailey.Sin.@milliner.pro","Monkey@163";</v>
+        <v>EXECUTE STP_CreateUser "Latonya","Bailey","Singleton",12345678,"Latonya.Bailey.Sin.@gmail.com","Monkey@163";</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="G43" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Latonya.Bailey.Sin.@milliner.pro</v>
+        <v>Latonya.Bailey.Sin.@gmail.com</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>775</v>
@@ -4116,7 +4116,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latoya","Ford","Hunt",12345678,"Latoya.Ford.Hun.@milliner.pro","Monkey@164";</v>
+        <v>EXECUTE STP_CreateUser "Latoya","Ford","Hunt",12345678,"Latoya.Ford.Hun.@gmail.com","Monkey@164";</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="G44" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Latoya.Ford.Hun.@milliner.pro</v>
+        <v>Latoya.Ford.Hun.@gmail.com</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>776</v>
@@ -4144,7 +4144,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lavaughn","Miller","Wells",12345678,"Lavaughn.Miller.Wel.@milliner.pro","Monkey@165";</v>
+        <v>EXECUTE STP_CreateUser "Lavaughn","Miller","Wells",12345678,"Lavaughn.Miller.Wel.@gmail.com","Monkey@165";</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lavaughn.Miller.Wel.@milliner.pro</v>
+        <v>Lavaughn.Miller.Wel.@gmail.com</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>777</v>
@@ -4172,7 +4172,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LaVonn","Thompson","Warren",12345678,"LaVonn.Thompson.War.@milliner.pro","Monkey@166";</v>
+        <v>EXECUTE STP_CreateUser "LaVonn","Thompson","Warren",12345678,"LaVonn.Thompson.War.@gmail.com","Monkey@166";</v>
       </c>
       <c r="B46" s="1">
         <v>44</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LaVonn.Thompson.War.@milliner.pro</v>
+        <v>LaVonn.Thompson.War.@gmail.com</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>778</v>
@@ -4200,7 +4200,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LaVonn","Anderson","Russell",12345678,"LaVonn.Anderson.Rus.@milliner.pro","Monkey@167";</v>
+        <v>EXECUTE STP_CreateUser "LaVonn","Anderson","Russell",12345678,"LaVonn.Anderson.Rus.@gmail.com","Monkey@167";</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="G47" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LaVonn.Anderson.Rus.@milliner.pro</v>
+        <v>LaVonn.Anderson.Rus.@gmail.com</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>779</v>
@@ -4228,7 +4228,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LeBron","Hill","Mack",12345678,"LeBron.Hill.Mac.@milliner.pro","Monkey@168";</v>
+        <v>EXECUTE STP_CreateUser "LeBron","Hill","Mack",12345678,"LeBron.Hill.Mac.@gmail.com","Monkey@168";</v>
       </c>
       <c r="B48" s="1">
         <v>46</v>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="G48" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>LeBron.Hill.Mac.@milliner.pro</v>
+        <v>LeBron.Hill.Mac.@gmail.com</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>780</v>
@@ -4256,7 +4256,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lisimba","Allen","Murray",12345678,"Lisimba.Allen.Mur.@milliner.pro","Monkey@169";</v>
+        <v>EXECUTE STP_CreateUser "Lisimba","Allen","Murray",12345678,"Lisimba.Allen.Mur.@gmail.com","Monkey@169";</v>
       </c>
       <c r="B49" s="1">
         <v>47</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G49" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Lisimba.Allen.Mur.@milliner.pro</v>
+        <v>Lisimba.Allen.Mur.@gmail.com</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>781</v>
@@ -4284,7 +4284,7 @@
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Ludacris","Mitchell","Douglas",12345678,"Ludacris.Mitchell.Dou.@milliner.pro","Monkey@170";</v>
+        <v>EXECUTE STP_CreateUser "Ludacris","Mitchell","Douglas",12345678,"Ludacris.Mitchell.Dou.@gmail.com","Monkey@170";</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="G50" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Ludacris.Mitchell.Dou.@milliner.pro</v>
+        <v>Ludacris.Mitchell.Dou.@gmail.com</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>782</v>
@@ -4312,7 +4312,7 @@
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mablevi","Young","Bradley",12345678,"Mablevi.Young.Bra.@milliner.pro","Monkey@171";</v>
+        <v>EXECUTE STP_CreateUser "Mablevi","Young","Bradley",12345678,"Mablevi.Young.Bra.@gmail.com","Monkey@171";</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="G51" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mablevi.Young.Bra.@milliner.pro</v>
+        <v>Mablevi.Young.Bra.@gmail.com</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>783</v>
@@ -4340,7 +4340,7 @@
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Marques","Lee","Frazier",12345678,"Marques.Lee.Fra.@milliner.pro","Monkey@172";</v>
+        <v>EXECUTE STP_CreateUser "Marques","Lee","Frazier",12345678,"Marques.Lee.Fra.@gmail.com","Monkey@172";</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G52" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Marques.Lee.Fra.@milliner.pro</v>
+        <v>Marques.Lee.Fra.@gmail.com</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>784</v>
@@ -4368,7 +4368,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mashawn","Martin","Shaw",12345678,"Mashawn.Martin.Sha.@milliner.pro","Monkey@173";</v>
+        <v>EXECUTE STP_CreateUser "Mashawn","Martin","Shaw",12345678,"Mashawn.Martin.Sha.@gmail.com","Monkey@173";</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="G53" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mashawn.Martin.Sha.@milliner.pro</v>
+        <v>Mashawn.Martin.Sha.@gmail.com</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>785</v>
@@ -4396,7 +4396,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mekell","Holmes","Reynolds",12345678,"Mekell.Holmes.Rey.@milliner.pro","Monkey@174";</v>
+        <v>EXECUTE STP_CreateUser "Mekell","Holmes","Reynolds",12345678,"Mekell.Holmes.Rey.@gmail.com","Monkey@174";</v>
       </c>
       <c r="B54" s="1">
         <v>52</v>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="G54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mekell.Holmes.Rey.@milliner.pro</v>
+        <v>Mekell.Holmes.Rey.@gmail.com</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>786</v>
@@ -4424,7 +4424,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Moesha","Banks","Curry",12345678,"Moesha.Banks.Cur.@milliner.pro","Monkey@175";</v>
+        <v>EXECUTE STP_CreateUser "Moesha","Banks","Curry",12345678,"Moesha.Banks.Cur.@gmail.com","Monkey@175";</v>
       </c>
       <c r="B55" s="1">
         <v>53</v>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="G55" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Moesha.Banks.Cur.@milliner.pro</v>
+        <v>Moesha.Banks.Cur.@gmail.com</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>787</v>
@@ -4452,7 +4452,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Montraie","Clark","Harper",12345678,"Montraie.Clark.Har.@milliner.pro","Monkey@176";</v>
+        <v>EXECUTE STP_CreateUser "Montraie","Clark","Harper",12345678,"Montraie.Clark.Har.@gmail.com","Monkey@176";</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="G56" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Montraie.Clark.Har.@milliner.pro</v>
+        <v>Montraie.Clark.Har.@gmail.com</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>788</v>
@@ -4480,7 +4480,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Muncel","Daniels","Charles",12345678,"Muncel.Daniels.Cha.@milliner.pro","Monkey@177";</v>
+        <v>EXECUTE STP_CreateUser "Muncel","Daniels","Charles",12345678,"Muncel.Daniels.Cha.@gmail.com","Monkey@177";</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="G57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Muncel.Daniels.Cha.@milliner.pro</v>
+        <v>Muncel.Daniels.Cha.@gmail.com</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>789</v>
@@ -4508,7 +4508,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mykelti","Turner","Greene",12345678,"Mykelti.Turner.Gre.@milliner.pro","Monkey@178";</v>
+        <v>EXECUTE STP_CreateUser "Mykelti","Turner","Greene",12345678,"Mykelti.Turner.Gre.@gmail.com","Monkey@178";</v>
       </c>
       <c r="B58" s="1">
         <v>56</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Mykelti.Turner.Gre.@milliner.pro</v>
+        <v>Mykelti.Turner.Gre.@gmail.com</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>790</v>
@@ -4536,7 +4536,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nabulung","Hall","Robertson",12345678,"Nabulung.Hall.Rob.@milliner.pro","Monkey@179";</v>
+        <v>EXECUTE STP_CreateUser "Nabulung","Hall","Robertson",12345678,"Nabulung.Hall.Rob.@gmail.com","Monkey@179";</v>
       </c>
       <c r="B59" s="1">
         <v>57</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="G59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Nabulung.Hall.Rob.@milliner.pro</v>
+        <v>Nabulung.Hall.Rob.@gmail.com</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>791</v>
@@ -4564,7 +4564,7 @@
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Naeem","King","Payne",12345678,"Naeem.King.Pay.@milliner.pro","Monkey@180";</v>
+        <v>EXECUTE STP_CreateUser "Naeem","King","Payne",12345678,"Naeem.King.Pay.@gmail.com","Monkey@180";</v>
       </c>
       <c r="B60" s="1">
         <v>58</v>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="G60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Naeem.King.Pay.@milliner.pro</v>
+        <v>Naeem.King.Pay.@gmail.com</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>792</v>
@@ -4592,7 +4592,7 @@
     <row r="61" spans="1:8">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Najwa","Ross","Chambers",12345678,"Najwa.Ross.Cha.@milliner.pro","Monkey@181";</v>
+        <v>EXECUTE STP_CreateUser "Najwa","Ross","Chambers",12345678,"Najwa.Ross.Cha.@gmail.com","Monkey@181";</v>
       </c>
       <c r="B61" s="1">
         <v>59</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="G61" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Najwa.Ross.Cha.@milliner.pro</v>
+        <v>Najwa.Ross.Cha.@gmail.com</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>793</v>
@@ -4620,7 +4620,7 @@
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nakeisha","Rogers","Hardy",12345678,"Nakeisha.Rogers.Har.@milliner.pro","Monkey@182";</v>
+        <v>EXECUTE STP_CreateUser "Nakeisha","Rogers","Hardy",12345678,"Nakeisha.Rogers.Har.@gmail.com","Monkey@182";</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="G62" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Nakeisha.Rogers.Har.@milliner.pro</v>
+        <v>Nakeisha.Rogers.Har.@gmail.com</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>794</v>
@@ -4648,7 +4648,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Napoleon","Edwards","Perkins",12345678,"Napoleon.Edwards.Per.@milliner.pro","Monkey@183";</v>
+        <v>EXECUTE STP_CreateUser "Napoleon","Edwards","Perkins",12345678,"Napoleon.Edwards.Per.@gmail.com","Monkey@183";</v>
       </c>
       <c r="B63" s="1">
         <v>61</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="G63" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Napoleon.Edwards.Per.@milliner.pro</v>
+        <v>Napoleon.Edwards.Per.@gmail.com</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>795</v>
@@ -4676,7 +4676,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nichelle","Perry","Hines",12345678,"Nichelle.Perry.Hin.@milliner.pro","Monkey@184";</v>
+        <v>EXECUTE STP_CreateUser "Nichelle","Perry","Hines",12345678,"Nichelle.Perry.Hin.@gmail.com","Monkey@184";</v>
       </c>
       <c r="B64" s="1">
         <v>62</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="G64" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Nichelle.Perry.Hin.@milliner.pro</v>
+        <v>Nichelle.Perry.Hin.@gmail.com</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>796</v>
@@ -4704,7 +4704,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Niesha","Foster","Little",12345678,"Niesha.Foster.Lit.@milliner.pro","Monkey@185";</v>
+        <v>EXECUTE STP_CreateUser "Niesha","Foster","Little",12345678,"Niesha.Foster.Lit.@gmail.com","Monkey@185";</v>
       </c>
       <c r="B65" s="1">
         <v>63</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G65" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Niesha.Foster.Lit.@milliner.pro</v>
+        <v>Niesha.Foster.Lit.@gmail.com</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>797</v>
@@ -4732,7 +4732,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Obiajulu","Coleman","Byrd",12345678,"Obiajulu.Coleman.Byr.@milliner.pro","Monkey@186";</v>
+        <v>EXECUTE STP_CreateUser "Obiajulu","Coleman","Byrd",12345678,"Obiajulu.Coleman.Byr.@gmail.com","Monkey@186";</v>
       </c>
       <c r="B66" s="1">
         <v>64</v>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="G66" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Obiajulu.Coleman.Byr.@milliner.pro</v>
+        <v>Obiajulu.Coleman.Byr.@gmail.com</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>798</v>
@@ -4760,7 +4760,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Quaashie","James","Spencer",12345678,"Quaashie.James.Spe.@milliner.pro","Monkey@187";</v>
+        <v>EXECUTE STP_CreateUser "Quaashie","James","Spencer",12345678,"Quaashie.James.Spe.@gmail.com","Monkey@187";</v>
       </c>
       <c r="B67" s="1">
         <v>65</v>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Quaashie.James.Spe.@milliner.pro</v>
+        <v>Quaashie.James.Spe.@gmail.com</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>799</v>
@@ -4788,7 +4788,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="str">
         <f t="shared" ref="A68:A104" si="2">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C68,CHAR(34), ",",CHAR(34),D68,CHAR(34), ",",CHAR(34),E68,CHAR(34), ",",,F68,, ",",CHAR(34),G68,CHAR(34), ",",CHAR(34),H68,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Quaddus","Evans","Webb",12345678,"Quaddus.Evans.Web.@milliner.pro","Monkey@188";</v>
+        <v>EXECUTE STP_CreateUser "Quaddus","Evans","Webb",12345678,"Quaddus.Evans.Web.@gmail.com","Monkey@188";</v>
       </c>
       <c r="B68" s="1">
         <v>66</v>
@@ -4806,8 +4806,8 @@
         <v>12345678</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f t="shared" ref="G68:G102" si="3">_xlfn.TEXTJOIN(".",TRUE,C68,D68,LEFT(E68,3),"@milliner.pro")</f>
-        <v>Quaddus.Evans.Web.@milliner.pro</v>
+        <f t="shared" ref="G68:G102" si="3">_xlfn.TEXTJOIN(".",TRUE,C68,D68,LEFT(E68,3),"@gmail.com")</f>
+        <v>Quaddus.Evans.Web.@gmail.com</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>800</v>
@@ -4816,7 +4816,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quadrees","Bell","Oliver",12345678,"Quadrees.Bell.Oli.@milliner.pro","Monkey@189";</v>
+        <v>EXECUTE STP_CreateUser "Quadrees","Bell","Oliver",12345678,"Quadrees.Bell.Oli.@gmail.com","Monkey@189";</v>
       </c>
       <c r="B69" s="1">
         <v>67</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="G69" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quadrees.Bell.Oli.@milliner.pro</v>
+        <v>Quadrees.Bell.Oli.@gmail.com</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>801</v>
@@ -4844,7 +4844,7 @@
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quanella","Patterson","Walton",12345678,"Quanella.Patterson.Wal.@milliner.pro","Monkey@190";</v>
+        <v>EXECUTE STP_CreateUser "Quanella","Patterson","Walton",12345678,"Quanella.Patterson.Wal.@gmail.com","Monkey@190";</v>
       </c>
       <c r="B70" s="1">
         <v>68</v>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="G70" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quanella.Patterson.Wal.@milliner.pro</v>
+        <v>Quanella.Patterson.Wal.@gmail.com</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>802</v>
@@ -4872,7 +4872,7 @@
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quanesha","Hunter","Rice",12345678,"Quanesha.Hunter.Ric.@milliner.pro","Monkey@191";</v>
+        <v>EXECUTE STP_CreateUser "Quanesha","Hunter","Rice",12345678,"Quanesha.Hunter.Ric.@gmail.com","Monkey@191";</v>
       </c>
       <c r="B71" s="1">
         <v>69</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="G71" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quanesha.Hunter.Ric.@milliner.pro</v>
+        <v>Quanesha.Hunter.Ric.@gmail.com</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>803</v>
@@ -4900,7 +4900,7 @@
     <row r="72" spans="1:8">
       <c r="A72" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quannell","Richardson","Cox",12345678,"Quannell.Richardson.Cox.@milliner.pro","Monkey@192";</v>
+        <v>EXECUTE STP_CreateUser "Quannell","Richardson","Cox",12345678,"Quannell.Richardson.Cox.@gmail.com","Monkey@192";</v>
       </c>
       <c r="B72" s="1">
         <v>70</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="G72" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quannell.Richardson.Cox.@milliner.pro</v>
+        <v>Quannell.Richardson.Cox.@gmail.com</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>804</v>
@@ -4928,7 +4928,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quarren","Adams","Austin",12345678,"Quarren.Adams.Aus.@milliner.pro","Monkey@193";</v>
+        <v>EXECUTE STP_CreateUser "Quarren","Adams","Austin",12345678,"Quarren.Adams.Aus.@gmail.com","Monkey@193";</v>
       </c>
       <c r="B73" s="1">
         <v>71</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G73" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quarren.Adams.Aus.@milliner.pro</v>
+        <v>Quarren.Adams.Aus.@gmail.com</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>805</v>
@@ -4956,7 +4956,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quashawn","Brooks","Berry",12345678,"Quashawn.Brooks.Ber.@milliner.pro","Monkey@194";</v>
+        <v>EXECUTE STP_CreateUser "Quashawn","Brooks","Berry",12345678,"Quashawn.Brooks.Ber.@gmail.com","Monkey@194";</v>
       </c>
       <c r="B74" s="1">
         <v>72</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G74" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quashawn.Brooks.Ber.@milliner.pro</v>
+        <v>Quashawn.Brooks.Ber.@gmail.com</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>806</v>
@@ -4984,7 +4984,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quintavius","Parker","Lawrence",12345678,"Quintavius.Parker.Law.@milliner.pro","Monkey@195";</v>
+        <v>EXECUTE STP_CreateUser "Quintavius","Parker","Lawrence",12345678,"Quintavius.Parker.Law.@gmail.com","Monkey@195";</v>
       </c>
       <c r="B75" s="1">
         <v>73</v>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="G75" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quintavius.Parker.Law.@milliner.pro</v>
+        <v>Quintavius.Parker.Law.@gmail.com</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>807</v>
@@ -5012,7 +5012,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quisha","Owens","Mills",12345678,"Quisha.Owens.Mil.@milliner.pro","Monkey@196";</v>
+        <v>EXECUTE STP_CreateUser "Quisha","Owens","Mills",12345678,"Quisha.Owens.Mil.@gmail.com","Monkey@196";</v>
       </c>
       <c r="B76" s="1">
         <v>74</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quisha.Owens.Mil.@milliner.pro</v>
+        <v>Quisha.Owens.Mil.@gmail.com</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>808</v>
@@ -5040,7 +5040,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quoitrel","Jenkins","Mcdonald",12345678,"Quoitrel.Jenkins.Mcd.@milliner.pro","Monkey@197";</v>
+        <v>EXECUTE STP_CreateUser "Quoitrel","Jenkins","Mcdonald",12345678,"Quoitrel.Jenkins.Mcd.@gmail.com","Monkey@197";</v>
       </c>
       <c r="B77" s="1">
         <v>75</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="G77" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Quoitrel.Jenkins.Mcd.@milliner.pro</v>
+        <v>Quoitrel.Jenkins.Mcd.@gmail.com</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>809</v>
@@ -5068,7 +5068,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Raimy","Stewart","Montgomery",12345678,"Raimy.Stewart.Mon.@milliner.pro","Monkey@198";</v>
+        <v>EXECUTE STP_CreateUser "Raimy","Stewart","Montgomery",12345678,"Raimy.Stewart.Mon.@gmail.com","Monkey@198";</v>
       </c>
       <c r="B78" s="1">
         <v>76</v>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="G78" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Raimy.Stewart.Mon.@milliner.pro</v>
+        <v>Raimy.Stewart.Mon.@gmail.com</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>810</v>
@@ -5096,7 +5096,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Ranielle","Granth","Fisher",12345678,"Ranielle.Granth.Fis.@milliner.pro","Monkey@199";</v>
+        <v>EXECUTE STP_CreateUser "Ranielle","Granth","Fisher",12345678,"Ranielle.Granth.Fis.@gmail.com","Monkey@199";</v>
       </c>
       <c r="B79" s="1">
         <v>77</v>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="G79" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Ranielle.Granth.Fis.@milliner.pro</v>
+        <v>Ranielle.Granth.Fis.@gmail.com</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>811</v>
@@ -5124,7 +5124,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Rashon","Howard","Love",12345678,"Rashon.Howard.Lov.@milliner.pro","Monkey@200";</v>
+        <v>EXECUTE STP_CreateUser "Rashon","Howard","Love",12345678,"Rashon.Howard.Lov.@gmail.com","Monkey@200";</v>
       </c>
       <c r="B80" s="1">
         <v>78</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="G80" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Rashon.Howard.Lov.@milliner.pro</v>
+        <v>Rashon.Howard.Lov.@gmail.com</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>812</v>
@@ -5152,7 +5152,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Razi","Campbell","Mccoy",12345678,"Razi.Campbell.Mcc.@milliner.pro","Monkey@201";</v>
+        <v>EXECUTE STP_CreateUser "Razi","Campbell","Mccoy",12345678,"Razi.Campbell.Mcc.@gmail.com","Monkey@201";</v>
       </c>
       <c r="B81" s="1">
         <v>79</v>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="G81" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Razi.Campbell.Mcc.@milliner.pro</v>
+        <v>Razi.Campbell.Mcc.@gmail.com</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>813</v>
@@ -5180,7 +5180,7 @@
     <row r="82" spans="1:8">
       <c r="A82" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Ronnell","Marshall","Mosley",12345678,"Ronnell.Marshall.Mos.@milliner.pro","Monkey@202";</v>
+        <v>EXECUTE STP_CreateUser "Ronnell","Marshall","Mosley",12345678,"Ronnell.Marshall.Mos.@gmail.com","Monkey@202";</v>
       </c>
       <c r="B82" s="1">
         <v>80</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G82" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Ronnell.Marshall.Mos.@milliner.pro</v>
+        <v>Ronnell.Marshall.Mos.@gmail.com</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>814</v>
@@ -5208,7 +5208,7 @@
     <row r="83" spans="1:8">
       <c r="A83" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Roshaun","Simmons","Burton",12345678,"Roshaun.Simmons.Bur.@milliner.pro","Monkey@203";</v>
+        <v>EXECUTE STP_CreateUser "Roshaun","Simmons","Burton",12345678,"Roshaun.Simmons.Bur.@gmail.com","Monkey@203";</v>
       </c>
       <c r="B83" s="1">
         <v>81</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G83" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Roshaun.Simmons.Bur.@milliner.pro</v>
+        <v>Roshaun.Simmons.Bur.@gmail.com</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>815</v>
@@ -5236,7 +5236,7 @@
     <row r="84" spans="1:8">
       <c r="A84" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Runako","Sanders","Black",12345678,"Runako.Sanders.Bla.@milliner.pro","Monkey@204";</v>
+        <v>EXECUTE STP_CreateUser "Runako","Sanders","Black",12345678,"Runako.Sanders.Bla.@gmail.com","Monkey@204";</v>
       </c>
       <c r="B84" s="1">
         <v>82</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G84" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Runako.Sanders.Bla.@milliner.pro</v>
+        <v>Runako.Sanders.Bla.@gmail.com</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>816</v>
@@ -5264,7 +5264,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Salim","Henderson","Knight",12345678,"Salim.Henderson.Kni.@milliner.pro","Monkey@205";</v>
+        <v>EXECUTE STP_CreateUser "Salim","Henderson","Knight",12345678,"Salim.Henderson.Kni.@gmail.com","Monkey@205";</v>
       </c>
       <c r="B85" s="1">
         <v>83</v>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="G85" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Salim.Henderson.Kni.@milliner.pro</v>
+        <v>Salim.Henderson.Kni.@gmail.com</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>817</v>
@@ -5292,7 +5292,7 @@
     <row r="86" spans="1:8">
       <c r="A86" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shandra","Henry","Caldwell",12345678,"Shandra.Henry.Cal.@milliner.pro","Monkey@206";</v>
+        <v>EXECUTE STP_CreateUser "Shandra","Henry","Caldwell",12345678,"Shandra.Henry.Cal.@gmail.com","Monkey@206";</v>
       </c>
       <c r="B86" s="1">
         <v>84</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="G86" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Shandra.Henry.Cal.@milliner.pro</v>
+        <v>Shandra.Henry.Cal.@gmail.com</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>818</v>
@@ -5320,7 +5320,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shaquana","Morgan","Booker",12345678,"Shaquana.Morgan.Boo.@milliner.pro","Monkey@207";</v>
+        <v>EXECUTE STP_CreateUser "Shaquana","Morgan","Booker",12345678,"Shaquana.Morgan.Boo.@gmail.com","Monkey@207";</v>
       </c>
       <c r="B87" s="1">
         <v>85</v>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="G87" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Shaquana.Morgan.Boo.@milliner.pro</v>
+        <v>Shaquana.Morgan.Boo.@gmail.com</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>819</v>
@@ -5348,7 +5348,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shateque","Price","Alston",12345678,"Shateque.Price.Als.@milliner.pro","Monkey@208";</v>
+        <v>EXECUTE STP_CreateUser "Shateque","Price","Alston",12345678,"Shateque.Price.Als.@gmail.com","Monkey@208";</v>
       </c>
       <c r="B88" s="1">
         <v>86</v>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="G88" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Shateque.Price.Als.@milliner.pro</v>
+        <v>Shateque.Price.Als.@gmail.com</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>820</v>
@@ -5376,7 +5376,7 @@
     <row r="89" spans="1:8">
       <c r="A89" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Sidone","Wallace","Carr",12345678,"Sidone.Wallace.Car.@milliner.pro","Monkey@209";</v>
+        <v>EXECUTE STP_CreateUser "Sidone","Wallace","Carr",12345678,"Sidone.Wallace.Car.@gmail.com","Monkey@209";</v>
       </c>
       <c r="B89" s="1">
         <v>87</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="G89" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Sidone.Wallace.Car.@milliner.pro</v>
+        <v>Sidone.Wallace.Car.@gmail.com</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>821</v>
@@ -5404,7 +5404,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talaitha","Ward","Lawson",12345678,"Talaitha.Ward.Law.@milliner.pro","Monkey@210";</v>
+        <v>EXECUTE STP_CreateUser "Talaitha","Ward","Lawson",12345678,"Talaitha.Ward.Law.@gmail.com","Monkey@210";</v>
       </c>
       <c r="B90" s="1">
         <v>88</v>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="G90" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Talaitha.Ward.Law.@milliner.pro</v>
+        <v>Talaitha.Ward.Law.@gmail.com</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>822</v>
@@ -5432,7 +5432,7 @@
     <row r="91" spans="1:8">
       <c r="A91" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talisa","Hayes","Roberson",12345678,"Talisa.Hayes.Rob.@milliner.pro","Monkey@211";</v>
+        <v>EXECUTE STP_CreateUser "Talisa","Hayes","Roberson",12345678,"Talisa.Hayes.Rob.@gmail.com","Monkey@211";</v>
       </c>
       <c r="B91" s="1">
         <v>89</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="G91" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Talisa.Hayes.Rob.@milliner.pro</v>
+        <v>Talisa.Hayes.Rob.@gmail.com</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>823</v>
@@ -5460,7 +5460,7 @@
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talisha","Boyd","Kennedy",12345678,"Talisha.Boyd.Ken.@milliner.pro","Monkey@212";</v>
+        <v>EXECUTE STP_CreateUser "Talisha","Boyd","Kennedy",12345678,"Talisha.Boyd.Ken.@gmail.com","Monkey@212";</v>
       </c>
       <c r="B92" s="1">
         <v>90</v>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G92" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Talisha.Boyd.Ken.@milliner.pro</v>
+        <v>Talisha.Boyd.Ken.@gmail.com</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>824</v>
@@ -5488,7 +5488,7 @@
     <row r="93" spans="1:8">
       <c r="A93" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamika","Freeman","Terry",12345678,"Tamika.Freeman.Ter.@milliner.pro","Monkey@213";</v>
+        <v>EXECUTE STP_CreateUser "Tamika","Freeman","Terry",12345678,"Tamika.Freeman.Ter.@gmail.com","Monkey@213";</v>
       </c>
       <c r="B93" s="1">
         <v>91</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="G93" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tamika.Freeman.Ter.@milliner.pro</v>
+        <v>Tamika.Freeman.Ter.@gmail.com</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>825</v>
@@ -5516,7 +5516,7 @@
     <row r="94" spans="1:8">
       <c r="A94" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamira","Graham","Houston",12345678,"Tamira.Graham.Hou.@milliner.pro","Monkey@214";</v>
+        <v>EXECUTE STP_CreateUser "Tamira","Graham","Houston",12345678,"Tamira.Graham.Hou.@gmail.com","Monkey@214";</v>
       </c>
       <c r="B94" s="1">
         <v>92</v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G94" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tamira.Graham.Hou.@milliner.pro</v>
+        <v>Tamira.Graham.Hou.@gmail.com</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>826</v>
@@ -5544,7 +5544,7 @@
     <row r="95" spans="1:8">
       <c r="A95" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamyra","Hamilton","Burns",12345678,"Tamyra.Hamilton.Bur.@milliner.pro","Monkey@215";</v>
+        <v>EXECUTE STP_CreateUser "Tamyra","Hamilton","Burns",12345678,"Tamyra.Hamilton.Bur.@gmail.com","Monkey@215";</v>
       </c>
       <c r="B95" s="1">
         <v>93</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="G95" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tamyra.Hamilton.Bur.@milliner.pro</v>
+        <v>Tamyra.Hamilton.Bur.@gmail.com</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>827</v>
@@ -5572,7 +5572,7 @@
     <row r="96" spans="1:8">
       <c r="A96" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanasha","Franklin","Mcgee",12345678,"Tanasha.Franklin.Mcg.@milliner.pro","Monkey@216";</v>
+        <v>EXECUTE STP_CreateUser "Tanasha","Franklin","Mcgee",12345678,"Tanasha.Franklin.Mcg.@gmail.com","Monkey@216";</v>
       </c>
       <c r="B96" s="1">
         <v>94</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="G96" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tanasha.Franklin.Mcg.@milliner.pro</v>
+        <v>Tanasha.Franklin.Mcg.@gmail.com</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>828</v>
@@ -5600,7 +5600,7 @@
     <row r="97" spans="1:8">
       <c r="A97" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tandice","Hawkins","Ray",12345678,"Tandice.Hawkins.Ray.@milliner.pro","Monkey@217";</v>
+        <v>EXECUTE STP_CreateUser "Tandice","Hawkins","Ray",12345678,"Tandice.Hawkins.Ray.@gmail.com","Monkey@217";</v>
       </c>
       <c r="B97" s="1">
         <v>95</v>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="G97" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tandice.Hawkins.Ray.@milliner.pro</v>
+        <v>Tandice.Hawkins.Ray.@gmail.com</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>829</v>
@@ -5628,7 +5628,7 @@
     <row r="98" spans="1:8">
       <c r="A98" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanginika","Gordon","Myers",12345678,"Tanginika.Gordon.Mye.@milliner.pro","Monkey@218";</v>
+        <v>EXECUTE STP_CreateUser "Tanginika","Gordon","Myers",12345678,"Tanginika.Gordon.Mye.@gmail.com","Monkey@218";</v>
       </c>
       <c r="B98" s="1">
         <v>96</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="G98" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tanginika.Gordon.Mye.@milliner.pro</v>
+        <v>Tanginika.Gordon.Mye.@gmail.com</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>830</v>
@@ -5656,7 +5656,7 @@
     <row r="99" spans="1:8">
       <c r="A99" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Taniel","Sims","Fuller",12345678,"Taniel.Sims.Ful.@milliner.pro","Monkey@219";</v>
+        <v>EXECUTE STP_CreateUser "Taniel","Sims","Fuller",12345678,"Taniel.Sims.Ful.@gmail.com","Monkey@219";</v>
       </c>
       <c r="B99" s="1">
         <v>97</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Taniel.Sims.Ful.@milliner.pro</v>
+        <v>Taniel.Sims.Ful.@gmail.com</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>831</v>
@@ -5684,7 +5684,7 @@
     <row r="100" spans="1:8">
       <c r="A100" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanisha","Harrison","Stevenson",12345678,"Tanisha.Harrison.Ste.@milliner.pro","Monkey@220";</v>
+        <v>EXECUTE STP_CreateUser "Tanisha","Harrison","Stevenson",12345678,"Tanisha.Harrison.Ste.@gmail.com","Monkey@220";</v>
       </c>
       <c r="B100" s="1">
         <v>98</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="G100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tanisha.Harrison.Ste.@milliner.pro</v>
+        <v>Tanisha.Harrison.Ste.@gmail.com</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>832</v>
@@ -5712,7 +5712,7 @@
     <row r="101" spans="1:8">
       <c r="A101" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tariana","Ellis","Thornton",12345678,"Tariana.Ellis.Tho.@milliner.pro","Monkey@221";</v>
+        <v>EXECUTE STP_CreateUser "Tariana","Ellis","Thornton",12345678,"Tariana.Ellis.Tho.@gmail.com","Monkey@221";</v>
       </c>
       <c r="B101" s="1">
         <v>99</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="G101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Tariana.Ellis.Tho.@milliner.pro</v>
+        <v>Tariana.Ellis.Tho.@gmail.com</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>833</v>
@@ -5740,7 +5740,7 @@
     <row r="102" spans="1:8">
       <c r="A102" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Temima","Kelly","Watts",12345678,"Temima.Kelly.Wat.@milliner.pro","Monkey@222";</v>
+        <v>EXECUTE STP_CreateUser "Temima","Kelly","Watts",12345678,"Temima.Kelly.Wat.@gmail.com","Monkey@222";</v>
       </c>
       <c r="B102" s="1">
         <v>100</v>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="G102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Temima.Kelly.Wat.@milliner.pro</v>
+        <v>Temima.Kelly.Wat.@gmail.com</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>834</v>

--- a/DataGeneration.xlsx
+++ b/DataGeneration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d111c22d0d44bfb7/Fidelitas/SC-601 - Programación Avanzada/Final Project/SugarMonkey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{CE96290F-7750-4A03-BE1B-EE8AC37E00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{581C820D-F31B-435B-AE0F-12924A201D78}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{CE96290F-7750-4A03-BE1B-EE8AC37E00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9AF5FF-4208-4D77-8042-5699388FEBDF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C6B39063-5E09-4EE8-92D1-ACA90D09C3B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="838">
   <si>
     <t>[FirstName],</t>
   </si>
@@ -2543,6 +2543,12 @@
   </si>
   <si>
     <t>[Cellphone]</t>
+  </si>
+  <si>
+    <t>notSalted</t>
+  </si>
+  <si>
+    <t>[Salt]</t>
   </si>
 </sst>
 </file>
@@ -2923,7 +2929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA65DA6-43BF-41D3-974A-9E6DF5056382}">
-  <dimension ref="A2:H104"/>
+  <dimension ref="A2:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A12"/>
@@ -2942,7 +2948,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>730</v>
       </c>
@@ -2964,11 +2970,14 @@
       <c r="H2" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="str">
-        <f>CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C3,CHAR(34), ",",CHAR(34),D3,CHAR(34), ",",CHAR(34),E3,CHAR(34), ",",,F3,, ",",CHAR(34),G3,CHAR(34), ",",CHAR(34),H3,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Beyonce","Collins","Harvey",12345678,"Beyonce.Collins.Har.@gmail.com","Monkey@123";</v>
+        <f>CONCATENATE("EXECUTE STP_CreateUser ",CHAR(39),C3,CHAR(39), ",",CHAR(39),D3,CHAR(39), ",",CHAR(39),E3,CHAR(39), ",",,F3,, ",",CHAR(39),G3,CHAR(39), ",",CHAR(39),H3,CHAR(39),",",CHAR(39),I3,CHAR(39),";")</f>
+        <v>EXECUTE STP_CreateUser 'Beyonce','Collins','Harvey',12345678,'Beyonce.Collins.Har.@gmail.com','Monkey@123','notSalted';</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2992,11 +3001,14 @@
       <c r="H3" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A67" si="0">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C4,CHAR(34), ",",CHAR(34),D4,CHAR(34), ",",CHAR(34),E4,CHAR(34), ",",,F4,, ",",CHAR(34),G4,CHAR(34), ",",CHAR(34),H4,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Cassietta","Cooper","Andrews",12345678,"Cassietta.Cooper.And.@gmail.com","Monkey@124";</v>
+        <f t="shared" ref="A4:A67" si="0">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(39),C4,CHAR(39), ",",CHAR(39),D4,CHAR(39), ",",CHAR(39),E4,CHAR(39), ",",,F4,, ",",CHAR(39),G4,CHAR(39), ",",CHAR(39),H4,CHAR(39),",",CHAR(39),I4,CHAR(39),";")</f>
+        <v>EXECUTE STP_CreateUser 'Cassietta','Cooper','Andrews',12345678,'Cassietta.Cooper.And.@gmail.com','Monkey@124','notSalted';</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -3020,11 +3032,14 @@
       <c r="H4" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Cleotha","Watson","Cunningham",12345678,"Cleotha.Watson.Cun.@gmail.com","Monkey@125";</v>
+        <v>EXECUTE STP_CreateUser 'Cleotha','Watson','Cunningham',12345678,'Cleotha.Watson.Cun.@gmail.com','Monkey@125','notSalted';</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -3048,11 +3063,14 @@
       <c r="H5" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deion","Williams","Hicks",12345678,"Deion.Williams.Hic.@gmail.com","Monkey@126";</v>
+        <v>EXECUTE STP_CreateUser 'Deion','Williams','Hicks',12345678,'Deion.Williams.Hic.@gmail.com','Monkey@126','notSalted';</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -3076,11 +3094,14 @@
       <c r="H6" s="1" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deiondre","Johnson","Bennett",12345678,"Deiondre.Johnson.Ben.@gmail.com","Monkey@127";</v>
+        <v>EXECUTE STP_CreateUser 'Deiondre','Johnson','Bennett',12345678,'Deiondre.Johnson.Ben.@gmail.com','Monkey@127','notSalted';</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -3104,11 +3125,14 @@
       <c r="H7" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Deiondre","Butler","Stephens",12345678,"Deiondre.Butler.Ste.@gmail.com","Monkey@128";</v>
+        <v>EXECUTE STP_CreateUser 'Deiondre','Butler','Stephens',12345678,'Deiondre.Butler.Ste.@gmail.com','Monkey@128','notSalted';</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -3132,11 +3156,14 @@
       <c r="H8" s="1" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dele","Smith","Joseph",12345678,"Dele.Smith.Jos.@gmail.com","Monkey@129";</v>
+        <v>EXECUTE STP_CreateUser 'Dele','Smith','Joseph',12345678,'Dele.Smith.Jos.@gmail.com','Monkey@129','notSalted';</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
@@ -3160,11 +3187,14 @@
       <c r="H9" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Denzel","Jones","Gibson",12345678,"Denzel.Jones.Gib.@gmail.com","Monkey@130";</v>
+        <v>EXECUTE STP_CreateUser 'Denzel','Jones','Gibson',12345678,'Denzel.Jones.Gib.@gmail.com','Monkey@130','notSalted';</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -3188,11 +3218,14 @@
       <c r="H10" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dericia","Alexander","Armstrong",12345678,"Dericia.Alexander.Arm.@gmail.com","Monkey@131";</v>
+        <v>EXECUTE STP_CreateUser 'Dericia','Alexander','Armstrong',12345678,'Dericia.Alexander.Arm.@gmail.com','Monkey@131','notSalted';</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -3216,11 +3249,14 @@
       <c r="H11" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dewayne","Brown","Crawford",12345678,"Dewayne.Brown.Cra.@gmail.com","Monkey@132";</v>
+        <v>EXECUTE STP_CreateUser 'Dewayne','Brown','Crawford',12345678,'Dewayne.Brown.Cra.@gmail.com','Monkey@132','notSalted';</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -3244,11 +3280,14 @@
       <c r="H12" s="1" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Dikembe","Jackson","Jefferson",12345678,"Dikembe.Jackson.Jef.@gmail.com","Monkey@133";</v>
+        <v>EXECUTE STP_CreateUser 'Dikembe','Jackson','Jefferson',12345678,'Dikembe.Jackson.Jef.@gmail.com','Monkey@133','notSalted';</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -3272,11 +3311,14 @@
       <c r="H13" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Duante","Davis","Watkins",12345678,"Duante.Davis.Wat.@gmail.com","Monkey@134";</v>
+        <v>EXECUTE STP_CreateUser 'Duante','Davis','Watkins',12345678,'Duante.Davis.Wat.@gmail.com','Monkey@134','notSalted';</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
@@ -3300,11 +3342,14 @@
       <c r="H14" s="1" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Gaynelle","Bryant","Peterson",12345678,"Gaynelle.Bryant.Pet.@gmail.com","Monkey@135";</v>
+        <v>EXECUTE STP_CreateUser 'Gaynelle','Bryant','Peterson',12345678,'Gaynelle.Bryant.Pet.@gmail.com','Monkey@135','notSalted';</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -3328,11 +3373,14 @@
       <c r="H15" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Jamar","Thomas","Tucker",12345678,"Jamar.Thomas.Tuc.@gmail.com","Monkey@136";</v>
+        <v>EXECUTE STP_CreateUser 'Jamar','Thomas','Tucker',12345678,'Jamar.Thomas.Tuc.@gmail.com','Monkey@136','notSalted';</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -3356,11 +3404,14 @@
       <c r="H16" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Jevonte","Harris","Porter",12345678,"Jevonte.Harris.Por.@gmail.com","Monkey@137";</v>
+        <v>EXECUTE STP_CreateUser 'Jevonte','Harris','Porter',12345678,'Jevonte.Harris.Por.@gmail.com','Monkey@137','notSalted';</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -3384,11 +3435,14 @@
       <c r="H17" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kacondra","Nelson","Glover",12345678,"Kacondra.Nelson.Glo.@gmail.com","Monkey@138";</v>
+        <v>EXECUTE STP_CreateUser 'Kacondra','Nelson','Glover',12345678,'Kacondra.Nelson.Glo.@gmail.com','Monkey@138','notSalted';</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
@@ -3412,11 +3466,14 @@
       <c r="H18" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kadeem","Robinson","Willis",12345678,"Kadeem.Robinson.Wil.@gmail.com","Monkey@139";</v>
+        <v>EXECUTE STP_CreateUser 'Kadeem','Robinson','Willis',12345678,'Kadeem.Robinson.Wil.@gmail.com','Monkey@139','notSalted';</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
@@ -3440,11 +3497,14 @@
       <c r="H19" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kanesha","Morris","Long",12345678,"Kanesha.Morris.Lon.@gmail.com","Monkey@140";</v>
+        <v>EXECUTE STP_CreateUser 'Kanesha','Morris','Long',12345678,'Kanesha.Morris.Lon.@gmail.com','Monkey@140','notSalted';</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
@@ -3468,11 +3528,14 @@
       <c r="H20" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keilantra","Barnes","Haynes",12345678,"Keilantra.Barnes.Hay.@gmail.com","Monkey@141";</v>
+        <v>EXECUTE STP_CreateUser 'Keilantra','Barnes','Haynes',12345678,'Keilantra.Barnes.Hay.@gmail.com','Monkey@141','notSalted';</v>
       </c>
       <c r="B21" s="1">
         <v>19</v>
@@ -3496,11 +3559,14 @@
       <c r="H21" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kendis","Taylor","Mason",12345678,"Kendis.Taylor.Mas.@gmail.com","Monkey@142";</v>
+        <v>EXECUTE STP_CreateUser 'Kendis','Taylor','Mason',12345678,'Kendis.Taylor.Mas.@gmail.com','Monkey@142','notSalted';</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>
@@ -3524,11 +3590,14 @@
       <c r="H22" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kendis","Jordan","Riley",12345678,"Kendis.Jordan.Ril.@gmail.com","Monkey@143";</v>
+        <v>EXECUTE STP_CreateUser 'Kendis','Jordan','Riley',12345678,'Kendis.Jordan.Ril.@gmail.com','Monkey@143','notSalted';</v>
       </c>
       <c r="B23" s="1">
         <v>21</v>
@@ -3552,11 +3621,14 @@
       <c r="H23" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kentay","Wilson","Matthews",12345678,"Kentay.Wilson.Mat.@gmail.com","Monkey@144";</v>
+        <v>EXECUTE STP_CreateUser 'Kentay','Wilson','Matthews',12345678,'Kentay.Wilson.Mat.@gmail.com','Monkey@144','notSalted';</v>
       </c>
       <c r="B24" s="1">
         <v>22</v>
@@ -3580,11 +3652,14 @@
       <c r="H24" s="1" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keshawn","Moore","Fields",12345678,"Keshawn.Moore.Fie.@gmail.com","Monkey@145";</v>
+        <v>EXECUTE STP_CreateUser 'Keshawn','Moore','Fields',12345678,'Keshawn.Moore.Fie.@gmail.com','Monkey@145','notSalted';</v>
       </c>
       <c r="B25" s="1">
         <v>23</v>
@@ -3608,11 +3683,14 @@
       <c r="H25" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Keshon","Reed","Hampton",12345678,"Keshon.Reed.Ham.@gmail.com","Monkey@146";</v>
+        <v>EXECUTE STP_CreateUser 'Keshon','Reed','Hampton',12345678,'Keshon.Reed.Ham.@gmail.com','Monkey@146','notSalted';</v>
       </c>
       <c r="B26" s="1">
         <v>24</v>
@@ -3636,11 +3714,14 @@
       <c r="H26" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Khalon","White","Cook",12345678,"Khalon.White.Coo.@gmail.com","Monkey@147";</v>
+        <v>EXECUTE STP_CreateUser 'Khalon','White','Cook',12345678,'Khalon.White.Coo.@gmail.com','Monkey@147','notSalted';</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -3664,11 +3745,14 @@
       <c r="H27" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kofi","Lewis","Hughes",12345678,"Kofi.Lewis.Hug.@gmail.com","Monkey@148";</v>
+        <v>EXECUTE STP_CreateUser 'Kofi','Lewis','Hughes',12345678,'Kofi.Lewis.Hug.@gmail.com','Monkey@148','notSalted';</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
@@ -3692,11 +3776,14 @@
       <c r="H28" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kwamin","Walker","Simpson",12345678,"Kwamin.Walker.Sim.@gmail.com","Monkey@149";</v>
+        <v>EXECUTE STP_CreateUser 'Kwamin','Walker','Simpson',12345678,'Kwamin.Walker.Sim.@gmail.com','Monkey@149','notSalted';</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
@@ -3720,11 +3807,14 @@
       <c r="H29" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kyan","Green","Hudson",12345678,"Kyan.Green.Hud.@gmail.com","Monkey@150";</v>
+        <v>EXECUTE STP_CreateUser 'Kyan','Green','Hudson',12345678,'Kyan.Green.Hud.@gmail.com','Monkey@150','notSalted';</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
@@ -3748,11 +3838,14 @@
       <c r="H30" s="1" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Kyrone","Washington","Cole",12345678,"Kyrone.Washington.Col.@gmail.com","Monkey@151";</v>
+        <v>EXECUTE STP_CreateUser 'Kyrone','Washington','Cole',12345678,'Kyrone.Washington.Col.@gmail.com','Monkey@151','notSalted';</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
@@ -3776,11 +3869,14 @@
       <c r="H31" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lachelle","Woods","Wade",12345678,"Lachelle.Woods.Wad.@gmail.com","Monkey@152";</v>
+        <v>EXECUTE STP_CreateUser 'Lachelle','Woods','Wade',12345678,'Lachelle.Woods.Wad.@gmail.com','Monkey@152','notSalted';</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
@@ -3804,11 +3900,14 @@
       <c r="H32" s="1" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laken","Scott","West",12345678,"Laken.Scott.Wes.@gmail.com","Monkey@153";</v>
+        <v>EXECUTE STP_CreateUser 'Laken','Scott','West',12345678,'Laken.Scott.Wes.@gmail.com','Monkey@153','notSalted';</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -3832,11 +3931,14 @@
       <c r="H33" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lakin","Dixon","Miles",12345678,"Lakin.Dixon.Mil.@gmail.com","Monkey@154";</v>
+        <v>EXECUTE STP_CreateUser 'Lakin','Dixon','Miles',12345678,'Lakin.Dixon.Mil.@gmail.com','Monkey@154','notSalted';</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
@@ -3860,11 +3962,14 @@
       <c r="H34" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lakista","Carter","Reid",12345678,"Lakista.Carter.Rei.@gmail.com","Monkey@155";</v>
+        <v>EXECUTE STP_CreateUser 'Lakista','Carter','Reid',12345678,'Lakista.Carter.Rei.@gmail.com','Monkey@155','notSalted';</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
@@ -3888,11 +3993,14 @@
       <c r="H35" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lamech","Wright","Murphy",12345678,"Lamech.Wright.Mur.@gmail.com","Monkey@156";</v>
+        <v>EXECUTE STP_CreateUser 'Lamech','Wright','Murphy',12345678,'Lamech.Wright.Mur.@gmail.com','Monkey@156','notSalted';</v>
       </c>
       <c r="B36" s="1">
         <v>34</v>
@@ -3916,11 +4024,14 @@
       <c r="H36" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lanelle","Roberts","Palmer",12345678,"Lanelle.Roberts.Pal.@gmail.com","Monkey@157";</v>
+        <v>EXECUTE STP_CreateUser 'Lanelle','Roberts','Palmer',12345678,'Lanelle.Roberts.Pal.@gmail.com','Monkey@157','notSalted';</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
@@ -3944,11 +4055,14 @@
       <c r="H37" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laquanna","Gray","Neal",12345678,"Laquanna.Gray.Nea.@gmail.com","Monkey@158";</v>
+        <v>EXECUTE STP_CreateUser 'Laquanna','Gray','Neal',12345678,'Laquanna.Gray.Nea.@gmail.com','Monkey@158','notSalted';</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
@@ -3972,11 +4086,14 @@
       <c r="H38" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laqueta","Phillips","Gardner",12345678,"Laqueta.Phillips.Gar.@gmail.com","Monkey@159";</v>
+        <v>EXECUTE STP_CreateUser 'Laqueta','Phillips','Gardner',12345678,'Laqueta.Phillips.Gar.@gmail.com','Monkey@159','notSalted';</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
@@ -4000,11 +4117,14 @@
       <c r="H39" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Laquinta","Griffin","Ferguson",12345678,"Laquinta.Griffin.Fer.@gmail.com","Monkey@160";</v>
+        <v>EXECUTE STP_CreateUser 'Laquinta','Griffin','Ferguson',12345678,'Laquinta.Griffin.Fer.@gmail.com','Monkey@160','notSalted';</v>
       </c>
       <c r="B40" s="1">
         <v>38</v>
@@ -4028,11 +4148,14 @@
       <c r="H40" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lashawn","Baker","Garrett",12345678,"Lashawn.Baker.Gar.@gmail.com","Monkey@161";</v>
+        <v>EXECUTE STP_CreateUser 'Lashawn','Baker','Garrett',12345678,'Lashawn.Baker.Gar.@gmail.com','Monkey@161','notSalted';</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -4056,11 +4179,14 @@
       <c r="H41" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latanya","Powell","Tate",12345678,"Latanya.Powell.Tat.@gmail.com","Monkey@162";</v>
+        <v>EXECUTE STP_CreateUser 'Latanya','Powell','Tate',12345678,'Latanya.Powell.Tat.@gmail.com','Monkey@162','notSalted';</v>
       </c>
       <c r="B42" s="1">
         <v>40</v>
@@ -4084,11 +4210,14 @@
       <c r="H42" s="1" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latonya","Bailey","Singleton",12345678,"Latonya.Bailey.Sin.@gmail.com","Monkey@163";</v>
+        <v>EXECUTE STP_CreateUser 'Latonya','Bailey','Singleton',12345678,'Latonya.Bailey.Sin.@gmail.com','Monkey@163','notSalted';</v>
       </c>
       <c r="B43" s="1">
         <v>41</v>
@@ -4112,11 +4241,14 @@
       <c r="H43" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Latoya","Ford","Hunt",12345678,"Latoya.Ford.Hun.@gmail.com","Monkey@164";</v>
+        <v>EXECUTE STP_CreateUser 'Latoya','Ford','Hunt',12345678,'Latoya.Ford.Hun.@gmail.com','Monkey@164','notSalted';</v>
       </c>
       <c r="B44" s="1">
         <v>42</v>
@@ -4140,11 +4272,14 @@
       <c r="H44" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lavaughn","Miller","Wells",12345678,"Lavaughn.Miller.Wel.@gmail.com","Monkey@165";</v>
+        <v>EXECUTE STP_CreateUser 'Lavaughn','Miller','Wells',12345678,'Lavaughn.Miller.Wel.@gmail.com','Monkey@165','notSalted';</v>
       </c>
       <c r="B45" s="1">
         <v>43</v>
@@ -4168,11 +4303,14 @@
       <c r="H45" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LaVonn","Thompson","Warren",12345678,"LaVonn.Thompson.War.@gmail.com","Monkey@166";</v>
+        <v>EXECUTE STP_CreateUser 'LaVonn','Thompson','Warren',12345678,'LaVonn.Thompson.War.@gmail.com','Monkey@166','notSalted';</v>
       </c>
       <c r="B46" s="1">
         <v>44</v>
@@ -4196,11 +4334,14 @@
       <c r="H46" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LaVonn","Anderson","Russell",12345678,"LaVonn.Anderson.Rus.@gmail.com","Monkey@167";</v>
+        <v>EXECUTE STP_CreateUser 'LaVonn','Anderson','Russell',12345678,'LaVonn.Anderson.Rus.@gmail.com','Monkey@167','notSalted';</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
@@ -4224,11 +4365,14 @@
       <c r="H47" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "LeBron","Hill","Mack",12345678,"LeBron.Hill.Mac.@gmail.com","Monkey@168";</v>
+        <v>EXECUTE STP_CreateUser 'LeBron','Hill','Mack',12345678,'LeBron.Hill.Mac.@gmail.com','Monkey@168','notSalted';</v>
       </c>
       <c r="B48" s="1">
         <v>46</v>
@@ -4252,11 +4396,14 @@
       <c r="H48" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Lisimba","Allen","Murray",12345678,"Lisimba.Allen.Mur.@gmail.com","Monkey@169";</v>
+        <v>EXECUTE STP_CreateUser 'Lisimba','Allen','Murray',12345678,'Lisimba.Allen.Mur.@gmail.com','Monkey@169','notSalted';</v>
       </c>
       <c r="B49" s="1">
         <v>47</v>
@@ -4280,11 +4427,14 @@
       <c r="H49" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Ludacris","Mitchell","Douglas",12345678,"Ludacris.Mitchell.Dou.@gmail.com","Monkey@170";</v>
+        <v>EXECUTE STP_CreateUser 'Ludacris','Mitchell','Douglas',12345678,'Ludacris.Mitchell.Dou.@gmail.com','Monkey@170','notSalted';</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
@@ -4308,11 +4458,14 @@
       <c r="H50" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mablevi","Young","Bradley",12345678,"Mablevi.Young.Bra.@gmail.com","Monkey@171";</v>
+        <v>EXECUTE STP_CreateUser 'Mablevi','Young','Bradley',12345678,'Mablevi.Young.Bra.@gmail.com','Monkey@171','notSalted';</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
@@ -4336,11 +4489,14 @@
       <c r="H51" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Marques","Lee","Frazier",12345678,"Marques.Lee.Fra.@gmail.com","Monkey@172";</v>
+        <v>EXECUTE STP_CreateUser 'Marques','Lee','Frazier',12345678,'Marques.Lee.Fra.@gmail.com','Monkey@172','notSalted';</v>
       </c>
       <c r="B52" s="1">
         <v>50</v>
@@ -4364,11 +4520,14 @@
       <c r="H52" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mashawn","Martin","Shaw",12345678,"Mashawn.Martin.Sha.@gmail.com","Monkey@173";</v>
+        <v>EXECUTE STP_CreateUser 'Mashawn','Martin','Shaw',12345678,'Mashawn.Martin.Sha.@gmail.com','Monkey@173','notSalted';</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
@@ -4392,11 +4551,14 @@
       <c r="H53" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mekell","Holmes","Reynolds",12345678,"Mekell.Holmes.Rey.@gmail.com","Monkey@174";</v>
+        <v>EXECUTE STP_CreateUser 'Mekell','Holmes','Reynolds',12345678,'Mekell.Holmes.Rey.@gmail.com','Monkey@174','notSalted';</v>
       </c>
       <c r="B54" s="1">
         <v>52</v>
@@ -4420,11 +4582,14 @@
       <c r="H54" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Moesha","Banks","Curry",12345678,"Moesha.Banks.Cur.@gmail.com","Monkey@175";</v>
+        <v>EXECUTE STP_CreateUser 'Moesha','Banks','Curry',12345678,'Moesha.Banks.Cur.@gmail.com','Monkey@175','notSalted';</v>
       </c>
       <c r="B55" s="1">
         <v>53</v>
@@ -4448,11 +4613,14 @@
       <c r="H55" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Montraie","Clark","Harper",12345678,"Montraie.Clark.Har.@gmail.com","Monkey@176";</v>
+        <v>EXECUTE STP_CreateUser 'Montraie','Clark','Harper',12345678,'Montraie.Clark.Har.@gmail.com','Monkey@176','notSalted';</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
@@ -4476,11 +4644,14 @@
       <c r="H56" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Muncel","Daniels","Charles",12345678,"Muncel.Daniels.Cha.@gmail.com","Monkey@177";</v>
+        <v>EXECUTE STP_CreateUser 'Muncel','Daniels','Charles',12345678,'Muncel.Daniels.Cha.@gmail.com','Monkey@177','notSalted';</v>
       </c>
       <c r="B57" s="1">
         <v>55</v>
@@ -4504,11 +4675,14 @@
       <c r="H57" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Mykelti","Turner","Greene",12345678,"Mykelti.Turner.Gre.@gmail.com","Monkey@178";</v>
+        <v>EXECUTE STP_CreateUser 'Mykelti','Turner','Greene',12345678,'Mykelti.Turner.Gre.@gmail.com','Monkey@178','notSalted';</v>
       </c>
       <c r="B58" s="1">
         <v>56</v>
@@ -4532,11 +4706,14 @@
       <c r="H58" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nabulung","Hall","Robertson",12345678,"Nabulung.Hall.Rob.@gmail.com","Monkey@179";</v>
+        <v>EXECUTE STP_CreateUser 'Nabulung','Hall','Robertson',12345678,'Nabulung.Hall.Rob.@gmail.com','Monkey@179','notSalted';</v>
       </c>
       <c r="B59" s="1">
         <v>57</v>
@@ -4560,11 +4737,14 @@
       <c r="H59" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Naeem","King","Payne",12345678,"Naeem.King.Pay.@gmail.com","Monkey@180";</v>
+        <v>EXECUTE STP_CreateUser 'Naeem','King','Payne',12345678,'Naeem.King.Pay.@gmail.com','Monkey@180','notSalted';</v>
       </c>
       <c r="B60" s="1">
         <v>58</v>
@@ -4588,11 +4768,14 @@
       <c r="H60" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Najwa","Ross","Chambers",12345678,"Najwa.Ross.Cha.@gmail.com","Monkey@181";</v>
+        <v>EXECUTE STP_CreateUser 'Najwa','Ross','Chambers',12345678,'Najwa.Ross.Cha.@gmail.com','Monkey@181','notSalted';</v>
       </c>
       <c r="B61" s="1">
         <v>59</v>
@@ -4616,11 +4799,14 @@
       <c r="H61" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nakeisha","Rogers","Hardy",12345678,"Nakeisha.Rogers.Har.@gmail.com","Monkey@182";</v>
+        <v>EXECUTE STP_CreateUser 'Nakeisha','Rogers','Hardy',12345678,'Nakeisha.Rogers.Har.@gmail.com','Monkey@182','notSalted';</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
@@ -4644,11 +4830,14 @@
       <c r="H62" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Napoleon","Edwards","Perkins",12345678,"Napoleon.Edwards.Per.@gmail.com","Monkey@183";</v>
+        <v>EXECUTE STP_CreateUser 'Napoleon','Edwards','Perkins',12345678,'Napoleon.Edwards.Per.@gmail.com','Monkey@183','notSalted';</v>
       </c>
       <c r="B63" s="1">
         <v>61</v>
@@ -4672,11 +4861,14 @@
       <c r="H63" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Nichelle","Perry","Hines",12345678,"Nichelle.Perry.Hin.@gmail.com","Monkey@184";</v>
+        <v>EXECUTE STP_CreateUser 'Nichelle','Perry','Hines',12345678,'Nichelle.Perry.Hin.@gmail.com','Monkey@184','notSalted';</v>
       </c>
       <c r="B64" s="1">
         <v>62</v>
@@ -4700,11 +4892,14 @@
       <c r="H64" s="1" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Niesha","Foster","Little",12345678,"Niesha.Foster.Lit.@gmail.com","Monkey@185";</v>
+        <v>EXECUTE STP_CreateUser 'Niesha','Foster','Little',12345678,'Niesha.Foster.Lit.@gmail.com','Monkey@185','notSalted';</v>
       </c>
       <c r="B65" s="1">
         <v>63</v>
@@ -4728,11 +4923,14 @@
       <c r="H65" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Obiajulu","Coleman","Byrd",12345678,"Obiajulu.Coleman.Byr.@gmail.com","Monkey@186";</v>
+        <v>EXECUTE STP_CreateUser 'Obiajulu','Coleman','Byrd',12345678,'Obiajulu.Coleman.Byr.@gmail.com','Monkey@186','notSalted';</v>
       </c>
       <c r="B66" s="1">
         <v>64</v>
@@ -4756,11 +4954,14 @@
       <c r="H66" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EXECUTE STP_CreateUser "Quaashie","James","Spencer",12345678,"Quaashie.James.Spe.@gmail.com","Monkey@187";</v>
+        <v>EXECUTE STP_CreateUser 'Quaashie','James','Spencer',12345678,'Quaashie.James.Spe.@gmail.com','Monkey@187','notSalted';</v>
       </c>
       <c r="B67" s="1">
         <v>65</v>
@@ -4784,11 +4985,14 @@
       <c r="H67" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="3" t="str">
-        <f t="shared" ref="A68:A104" si="2">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(34),C68,CHAR(34), ",",CHAR(34),D68,CHAR(34), ",",CHAR(34),E68,CHAR(34), ",",,F68,, ",",CHAR(34),G68,CHAR(34), ",",CHAR(34),H68,CHAR(34),";")</f>
-        <v>EXECUTE STP_CreateUser "Quaddus","Evans","Webb",12345678,"Quaddus.Evans.Web.@gmail.com","Monkey@188";</v>
+        <f t="shared" ref="A68:A104" si="2">CONCATENATE("EXECUTE STP_CreateUser ",CHAR(39),C68,CHAR(39), ",",CHAR(39),D68,CHAR(39), ",",CHAR(39),E68,CHAR(39), ",",,F68,, ",",CHAR(39),G68,CHAR(39), ",",CHAR(39),H68,CHAR(39),",",CHAR(39),I68,CHAR(39),";")</f>
+        <v>EXECUTE STP_CreateUser 'Quaddus','Evans','Webb',12345678,'Quaddus.Evans.Web.@gmail.com','Monkey@188','notSalted';</v>
       </c>
       <c r="B68" s="1">
         <v>66</v>
@@ -4812,11 +5016,14 @@
       <c r="H68" s="1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quadrees","Bell","Oliver",12345678,"Quadrees.Bell.Oli.@gmail.com","Monkey@189";</v>
+        <v>EXECUTE STP_CreateUser 'Quadrees','Bell','Oliver',12345678,'Quadrees.Bell.Oli.@gmail.com','Monkey@189','notSalted';</v>
       </c>
       <c r="B69" s="1">
         <v>67</v>
@@ -4840,11 +5047,14 @@
       <c r="H69" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quanella","Patterson","Walton",12345678,"Quanella.Patterson.Wal.@gmail.com","Monkey@190";</v>
+        <v>EXECUTE STP_CreateUser 'Quanella','Patterson','Walton',12345678,'Quanella.Patterson.Wal.@gmail.com','Monkey@190','notSalted';</v>
       </c>
       <c r="B70" s="1">
         <v>68</v>
@@ -4868,11 +5078,14 @@
       <c r="H70" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quanesha","Hunter","Rice",12345678,"Quanesha.Hunter.Ric.@gmail.com","Monkey@191";</v>
+        <v>EXECUTE STP_CreateUser 'Quanesha','Hunter','Rice',12345678,'Quanesha.Hunter.Ric.@gmail.com','Monkey@191','notSalted';</v>
       </c>
       <c r="B71" s="1">
         <v>69</v>
@@ -4896,11 +5109,14 @@
       <c r="H71" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quannell","Richardson","Cox",12345678,"Quannell.Richardson.Cox.@gmail.com","Monkey@192";</v>
+        <v>EXECUTE STP_CreateUser 'Quannell','Richardson','Cox',12345678,'Quannell.Richardson.Cox.@gmail.com','Monkey@192','notSalted';</v>
       </c>
       <c r="B72" s="1">
         <v>70</v>
@@ -4924,11 +5140,14 @@
       <c r="H72" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quarren","Adams","Austin",12345678,"Quarren.Adams.Aus.@gmail.com","Monkey@193";</v>
+        <v>EXECUTE STP_CreateUser 'Quarren','Adams','Austin',12345678,'Quarren.Adams.Aus.@gmail.com','Monkey@193','notSalted';</v>
       </c>
       <c r="B73" s="1">
         <v>71</v>
@@ -4952,11 +5171,14 @@
       <c r="H73" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quashawn","Brooks","Berry",12345678,"Quashawn.Brooks.Ber.@gmail.com","Monkey@194";</v>
+        <v>EXECUTE STP_CreateUser 'Quashawn','Brooks','Berry',12345678,'Quashawn.Brooks.Ber.@gmail.com','Monkey@194','notSalted';</v>
       </c>
       <c r="B74" s="1">
         <v>72</v>
@@ -4980,11 +5202,14 @@
       <c r="H74" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quintavius","Parker","Lawrence",12345678,"Quintavius.Parker.Law.@gmail.com","Monkey@195";</v>
+        <v>EXECUTE STP_CreateUser 'Quintavius','Parker','Lawrence',12345678,'Quintavius.Parker.Law.@gmail.com','Monkey@195','notSalted';</v>
       </c>
       <c r="B75" s="1">
         <v>73</v>
@@ -5008,11 +5233,14 @@
       <c r="H75" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quisha","Owens","Mills",12345678,"Quisha.Owens.Mil.@gmail.com","Monkey@196";</v>
+        <v>EXECUTE STP_CreateUser 'Quisha','Owens','Mills',12345678,'Quisha.Owens.Mil.@gmail.com','Monkey@196','notSalted';</v>
       </c>
       <c r="B76" s="1">
         <v>74</v>
@@ -5036,11 +5264,14 @@
       <c r="H76" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Quoitrel","Jenkins","Mcdonald",12345678,"Quoitrel.Jenkins.Mcd.@gmail.com","Monkey@197";</v>
+        <v>EXECUTE STP_CreateUser 'Quoitrel','Jenkins','Mcdonald',12345678,'Quoitrel.Jenkins.Mcd.@gmail.com','Monkey@197','notSalted';</v>
       </c>
       <c r="B77" s="1">
         <v>75</v>
@@ -5064,11 +5295,14 @@
       <c r="H77" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Raimy","Stewart","Montgomery",12345678,"Raimy.Stewart.Mon.@gmail.com","Monkey@198";</v>
+        <v>EXECUTE STP_CreateUser 'Raimy','Stewart','Montgomery',12345678,'Raimy.Stewart.Mon.@gmail.com','Monkey@198','notSalted';</v>
       </c>
       <c r="B78" s="1">
         <v>76</v>
@@ -5092,11 +5326,14 @@
       <c r="H78" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Ranielle","Granth","Fisher",12345678,"Ranielle.Granth.Fis.@gmail.com","Monkey@199";</v>
+        <v>EXECUTE STP_CreateUser 'Ranielle','Granth','Fisher',12345678,'Ranielle.Granth.Fis.@gmail.com','Monkey@199','notSalted';</v>
       </c>
       <c r="B79" s="1">
         <v>77</v>
@@ -5120,11 +5357,14 @@
       <c r="H79" s="1" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Rashon","Howard","Love",12345678,"Rashon.Howard.Lov.@gmail.com","Monkey@200";</v>
+        <v>EXECUTE STP_CreateUser 'Rashon','Howard','Love',12345678,'Rashon.Howard.Lov.@gmail.com','Monkey@200','notSalted';</v>
       </c>
       <c r="B80" s="1">
         <v>78</v>
@@ -5148,11 +5388,14 @@
       <c r="H80" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Razi","Campbell","Mccoy",12345678,"Razi.Campbell.Mcc.@gmail.com","Monkey@201";</v>
+        <v>EXECUTE STP_CreateUser 'Razi','Campbell','Mccoy',12345678,'Razi.Campbell.Mcc.@gmail.com','Monkey@201','notSalted';</v>
       </c>
       <c r="B81" s="1">
         <v>79</v>
@@ -5176,11 +5419,14 @@
       <c r="H81" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Ronnell","Marshall","Mosley",12345678,"Ronnell.Marshall.Mos.@gmail.com","Monkey@202";</v>
+        <v>EXECUTE STP_CreateUser 'Ronnell','Marshall','Mosley',12345678,'Ronnell.Marshall.Mos.@gmail.com','Monkey@202','notSalted';</v>
       </c>
       <c r="B82" s="1">
         <v>80</v>
@@ -5204,11 +5450,14 @@
       <c r="H82" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Roshaun","Simmons","Burton",12345678,"Roshaun.Simmons.Bur.@gmail.com","Monkey@203";</v>
+        <v>EXECUTE STP_CreateUser 'Roshaun','Simmons','Burton',12345678,'Roshaun.Simmons.Bur.@gmail.com','Monkey@203','notSalted';</v>
       </c>
       <c r="B83" s="1">
         <v>81</v>
@@ -5232,11 +5481,14 @@
       <c r="H83" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Runako","Sanders","Black",12345678,"Runako.Sanders.Bla.@gmail.com","Monkey@204";</v>
+        <v>EXECUTE STP_CreateUser 'Runako','Sanders','Black',12345678,'Runako.Sanders.Bla.@gmail.com','Monkey@204','notSalted';</v>
       </c>
       <c r="B84" s="1">
         <v>82</v>
@@ -5260,11 +5512,14 @@
       <c r="H84" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Salim","Henderson","Knight",12345678,"Salim.Henderson.Kni.@gmail.com","Monkey@205";</v>
+        <v>EXECUTE STP_CreateUser 'Salim','Henderson','Knight',12345678,'Salim.Henderson.Kni.@gmail.com','Monkey@205','notSalted';</v>
       </c>
       <c r="B85" s="1">
         <v>83</v>
@@ -5288,11 +5543,14 @@
       <c r="H85" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shandra","Henry","Caldwell",12345678,"Shandra.Henry.Cal.@gmail.com","Monkey@206";</v>
+        <v>EXECUTE STP_CreateUser 'Shandra','Henry','Caldwell',12345678,'Shandra.Henry.Cal.@gmail.com','Monkey@206','notSalted';</v>
       </c>
       <c r="B86" s="1">
         <v>84</v>
@@ -5316,11 +5574,14 @@
       <c r="H86" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shaquana","Morgan","Booker",12345678,"Shaquana.Morgan.Boo.@gmail.com","Monkey@207";</v>
+        <v>EXECUTE STP_CreateUser 'Shaquana','Morgan','Booker',12345678,'Shaquana.Morgan.Boo.@gmail.com','Monkey@207','notSalted';</v>
       </c>
       <c r="B87" s="1">
         <v>85</v>
@@ -5344,11 +5605,14 @@
       <c r="H87" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Shateque","Price","Alston",12345678,"Shateque.Price.Als.@gmail.com","Monkey@208";</v>
+        <v>EXECUTE STP_CreateUser 'Shateque','Price','Alston',12345678,'Shateque.Price.Als.@gmail.com','Monkey@208','notSalted';</v>
       </c>
       <c r="B88" s="1">
         <v>86</v>
@@ -5372,11 +5636,14 @@
       <c r="H88" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Sidone","Wallace","Carr",12345678,"Sidone.Wallace.Car.@gmail.com","Monkey@209";</v>
+        <v>EXECUTE STP_CreateUser 'Sidone','Wallace','Carr',12345678,'Sidone.Wallace.Car.@gmail.com','Monkey@209','notSalted';</v>
       </c>
       <c r="B89" s="1">
         <v>87</v>
@@ -5400,11 +5667,14 @@
       <c r="H89" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talaitha","Ward","Lawson",12345678,"Talaitha.Ward.Law.@gmail.com","Monkey@210";</v>
+        <v>EXECUTE STP_CreateUser 'Talaitha','Ward','Lawson',12345678,'Talaitha.Ward.Law.@gmail.com','Monkey@210','notSalted';</v>
       </c>
       <c r="B90" s="1">
         <v>88</v>
@@ -5428,11 +5698,14 @@
       <c r="H90" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talisa","Hayes","Roberson",12345678,"Talisa.Hayes.Rob.@gmail.com","Monkey@211";</v>
+        <v>EXECUTE STP_CreateUser 'Talisa','Hayes','Roberson',12345678,'Talisa.Hayes.Rob.@gmail.com','Monkey@211','notSalted';</v>
       </c>
       <c r="B91" s="1">
         <v>89</v>
@@ -5456,11 +5729,14 @@
       <c r="H91" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Talisha","Boyd","Kennedy",12345678,"Talisha.Boyd.Ken.@gmail.com","Monkey@212";</v>
+        <v>EXECUTE STP_CreateUser 'Talisha','Boyd','Kennedy',12345678,'Talisha.Boyd.Ken.@gmail.com','Monkey@212','notSalted';</v>
       </c>
       <c r="B92" s="1">
         <v>90</v>
@@ -5484,11 +5760,14 @@
       <c r="H92" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamika","Freeman","Terry",12345678,"Tamika.Freeman.Ter.@gmail.com","Monkey@213";</v>
+        <v>EXECUTE STP_CreateUser 'Tamika','Freeman','Terry',12345678,'Tamika.Freeman.Ter.@gmail.com','Monkey@213','notSalted';</v>
       </c>
       <c r="B93" s="1">
         <v>91</v>
@@ -5512,11 +5791,14 @@
       <c r="H93" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamira","Graham","Houston",12345678,"Tamira.Graham.Hou.@gmail.com","Monkey@214";</v>
+        <v>EXECUTE STP_CreateUser 'Tamira','Graham','Houston',12345678,'Tamira.Graham.Hou.@gmail.com','Monkey@214','notSalted';</v>
       </c>
       <c r="B94" s="1">
         <v>92</v>
@@ -5540,11 +5822,14 @@
       <c r="H94" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tamyra","Hamilton","Burns",12345678,"Tamyra.Hamilton.Bur.@gmail.com","Monkey@215";</v>
+        <v>EXECUTE STP_CreateUser 'Tamyra','Hamilton','Burns',12345678,'Tamyra.Hamilton.Bur.@gmail.com','Monkey@215','notSalted';</v>
       </c>
       <c r="B95" s="1">
         <v>93</v>
@@ -5568,11 +5853,14 @@
       <c r="H95" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanasha","Franklin","Mcgee",12345678,"Tanasha.Franklin.Mcg.@gmail.com","Monkey@216";</v>
+        <v>EXECUTE STP_CreateUser 'Tanasha','Franklin','Mcgee',12345678,'Tanasha.Franklin.Mcg.@gmail.com','Monkey@216','notSalted';</v>
       </c>
       <c r="B96" s="1">
         <v>94</v>
@@ -5596,11 +5884,14 @@
       <c r="H96" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tandice","Hawkins","Ray",12345678,"Tandice.Hawkins.Ray.@gmail.com","Monkey@217";</v>
+        <v>EXECUTE STP_CreateUser 'Tandice','Hawkins','Ray',12345678,'Tandice.Hawkins.Ray.@gmail.com','Monkey@217','notSalted';</v>
       </c>
       <c r="B97" s="1">
         <v>95</v>
@@ -5624,11 +5915,14 @@
       <c r="H97" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanginika","Gordon","Myers",12345678,"Tanginika.Gordon.Mye.@gmail.com","Monkey@218";</v>
+        <v>EXECUTE STP_CreateUser 'Tanginika','Gordon','Myers',12345678,'Tanginika.Gordon.Mye.@gmail.com','Monkey@218','notSalted';</v>
       </c>
       <c r="B98" s="1">
         <v>96</v>
@@ -5652,11 +5946,14 @@
       <c r="H98" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Taniel","Sims","Fuller",12345678,"Taniel.Sims.Ful.@gmail.com","Monkey@219";</v>
+        <v>EXECUTE STP_CreateUser 'Taniel','Sims','Fuller',12345678,'Taniel.Sims.Ful.@gmail.com','Monkey@219','notSalted';</v>
       </c>
       <c r="B99" s="1">
         <v>97</v>
@@ -5680,11 +5977,14 @@
       <c r="H99" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tanisha","Harrison","Stevenson",12345678,"Tanisha.Harrison.Ste.@gmail.com","Monkey@220";</v>
+        <v>EXECUTE STP_CreateUser 'Tanisha','Harrison','Stevenson',12345678,'Tanisha.Harrison.Ste.@gmail.com','Monkey@220','notSalted';</v>
       </c>
       <c r="B100" s="1">
         <v>98</v>
@@ -5708,11 +6008,14 @@
       <c r="H100" s="1" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Tariana","Ellis","Thornton",12345678,"Tariana.Ellis.Tho.@gmail.com","Monkey@221";</v>
+        <v>EXECUTE STP_CreateUser 'Tariana','Ellis','Thornton',12345678,'Tariana.Ellis.Tho.@gmail.com','Monkey@221','notSalted';</v>
       </c>
       <c r="B101" s="1">
         <v>99</v>
@@ -5736,11 +6039,14 @@
       <c r="H101" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "Temima","Kelly","Watts",12345678,"Temima.Kelly.Wat.@gmail.com","Monkey@222";</v>
+        <v>EXECUTE STP_CreateUser 'Temima','Kelly','Watts',12345678,'Temima.Kelly.Wat.@gmail.com','Monkey@222','notSalted';</v>
       </c>
       <c r="B102" s="1">
         <v>100</v>
@@ -5764,23 +6070,32 @@
       <c r="H102" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "","","",12345678,"","";</v>
+        <v>EXECUTE STP_CreateUser '','','',12345678,'','','notSalted';</v>
       </c>
       <c r="F103" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXECUTE STP_CreateUser "","","",12345678,"","";</v>
+        <v>EXECUTE STP_CreateUser '','','',12345678,'','','notSalted';</v>
       </c>
       <c r="F104" s="1">
         <v>12345678</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
